--- a/Code/Results/Cases/Case_5_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_88/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001370799019361</v>
+        <v>1.031825702612842</v>
       </c>
       <c r="D2">
-        <v>1.024861552578998</v>
+        <v>1.041311234128588</v>
       </c>
       <c r="E2">
-        <v>1.007607171588623</v>
+        <v>1.031347056317505</v>
       </c>
       <c r="F2">
-        <v>1.028910949316319</v>
+        <v>1.0498088441016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05029162698662</v>
+        <v>1.037609870213082</v>
       </c>
       <c r="J2">
-        <v>1.023510586885515</v>
+        <v>1.03695929352739</v>
       </c>
       <c r="K2">
-        <v>1.035985060282103</v>
+        <v>1.044091108366749</v>
       </c>
       <c r="L2">
-        <v>1.018961534079138</v>
+        <v>1.034155437614137</v>
       </c>
       <c r="M2">
-        <v>1.039981682636849</v>
+        <v>1.05256487077546</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006136971301497</v>
+        <v>1.032826317500215</v>
       </c>
       <c r="D3">
-        <v>1.028575615916492</v>
+        <v>1.042099433132061</v>
       </c>
       <c r="E3">
-        <v>1.011428539343998</v>
+        <v>1.032198089628791</v>
       </c>
       <c r="F3">
-        <v>1.033142579436447</v>
+        <v>1.050730073968098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051780548570647</v>
+        <v>1.037832511416765</v>
       </c>
       <c r="J3">
-        <v>1.026461722993792</v>
+        <v>1.037601686063421</v>
       </c>
       <c r="K3">
-        <v>1.038855469631899</v>
+        <v>1.044689967995596</v>
       </c>
       <c r="L3">
-        <v>1.021917248782862</v>
+        <v>1.03481490173521</v>
       </c>
       <c r="M3">
-        <v>1.04336825464224</v>
+        <v>1.053298139988801</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009155442582546</v>
+        <v>1.033474039065305</v>
       </c>
       <c r="D4">
-        <v>1.03092817531256</v>
+        <v>1.042609314512821</v>
       </c>
       <c r="E4">
-        <v>1.013854812381774</v>
+        <v>1.032749369543917</v>
       </c>
       <c r="F4">
-        <v>1.035825103459465</v>
+        <v>1.051326352033497</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052709368999364</v>
+        <v>1.037974874079927</v>
       </c>
       <c r="J4">
-        <v>1.028327815679043</v>
+        <v>1.03801702990991</v>
       </c>
       <c r="K4">
-        <v>1.040667121864976</v>
+        <v>1.045076679039764</v>
       </c>
       <c r="L4">
-        <v>1.023788849116906</v>
+        <v>1.035241582643736</v>
       </c>
       <c r="M4">
-        <v>1.045509554541659</v>
+        <v>1.053772165986827</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010409293758991</v>
+        <v>1.033746402167627</v>
       </c>
       <c r="D5">
-        <v>1.031905446803344</v>
+        <v>1.042823634939291</v>
       </c>
       <c r="E5">
-        <v>1.014864098037486</v>
+        <v>1.032981271293592</v>
       </c>
       <c r="F5">
-        <v>1.036939969392352</v>
+        <v>1.051577069487031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053091750516983</v>
+        <v>1.038034315530487</v>
       </c>
       <c r="J5">
-        <v>1.029102244013741</v>
+        <v>1.03819156142429</v>
       </c>
       <c r="K5">
-        <v>1.041418126051483</v>
+        <v>1.045239062078492</v>
       </c>
       <c r="L5">
-        <v>1.024566189436475</v>
+        <v>1.035420949772614</v>
       </c>
       <c r="M5">
-        <v>1.046398151324736</v>
+        <v>1.053971338238057</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010618950917695</v>
+        <v>1.033792136690165</v>
       </c>
       <c r="D6">
-        <v>1.032068857262479</v>
+        <v>1.042859618272524</v>
       </c>
       <c r="E6">
-        <v>1.015032943929696</v>
+        <v>1.033020217012735</v>
       </c>
       <c r="F6">
-        <v>1.037126418387753</v>
+        <v>1.051619168490188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053155484758916</v>
+        <v>1.038044272080601</v>
       </c>
       <c r="J6">
-        <v>1.029231692418225</v>
+        <v>1.038220861377255</v>
       </c>
       <c r="K6">
-        <v>1.041543609657046</v>
+        <v>1.045266315721369</v>
       </c>
       <c r="L6">
-        <v>1.024696161405543</v>
+        <v>1.035451065721164</v>
       </c>
       <c r="M6">
-        <v>1.046546680576028</v>
+        <v>1.054004773757535</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009172255244223</v>
+        <v>1.033477678155551</v>
       </c>
       <c r="D7">
-        <v>1.030941279306965</v>
+        <v>1.042612178406719</v>
       </c>
       <c r="E7">
-        <v>1.013868340123392</v>
+        <v>1.032752467663212</v>
       </c>
       <c r="F7">
-        <v>1.035840050333101</v>
+        <v>1.051329701968152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052714509959573</v>
+        <v>1.037975669942647</v>
       </c>
       <c r="J7">
-        <v>1.028338202793583</v>
+        <v>1.038019362320044</v>
       </c>
       <c r="K7">
-        <v>1.040677198108595</v>
+        <v>1.04507884955867</v>
       </c>
       <c r="L7">
-        <v>1.023799272813638</v>
+        <v>1.035243979394519</v>
       </c>
       <c r="M7">
-        <v>1.045521473136567</v>
+        <v>1.05377482776289</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002995483996542</v>
+        <v>1.032163811604543</v>
       </c>
       <c r="D8">
-        <v>1.026127474420704</v>
+        <v>1.041577637171714</v>
       </c>
       <c r="E8">
-        <v>1.008908471185745</v>
+        <v>1.0316345412319</v>
       </c>
       <c r="F8">
-        <v>1.03035284367281</v>
+        <v>1.050120139955654</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050802100157043</v>
+        <v>1.037685464728976</v>
       </c>
       <c r="J8">
-        <v>1.024517149034245</v>
+        <v>1.037176460375553</v>
       </c>
       <c r="K8">
-        <v>1.036964791080946</v>
+        <v>1.044293659077148</v>
       </c>
       <c r="L8">
-        <v>1.019969108702685</v>
+        <v>1.034378313677912</v>
       </c>
       <c r="M8">
-        <v>1.041136782573964</v>
+        <v>1.052812774760596</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9915813305014396</v>
+        <v>1.029850600772033</v>
       </c>
       <c r="D9">
-        <v>1.017238118181322</v>
+        <v>1.03975365052736</v>
       </c>
       <c r="E9">
-        <v>0.9997945204649942</v>
+        <v>1.029669286830514</v>
       </c>
       <c r="F9">
-        <v>1.0202362610192</v>
+        <v>1.047990170215742</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047157946875915</v>
+        <v>1.037161082700744</v>
       </c>
       <c r="J9">
-        <v>1.017434916837167</v>
+        <v>1.035688686554783</v>
       </c>
       <c r="K9">
-        <v>1.030057575727124</v>
+        <v>1.042904031839743</v>
       </c>
       <c r="L9">
-        <v>1.012890932311166</v>
+        <v>1.032852655458056</v>
       </c>
       <c r="M9">
-        <v>1.033009334431251</v>
+        <v>1.051114124289293</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9835740489635822</v>
+        <v>1.028309826647405</v>
       </c>
       <c r="D10">
-        <v>1.011010588426862</v>
+        <v>1.038537056918057</v>
       </c>
       <c r="E10">
-        <v>0.9934393333204216</v>
+        <v>1.02836232008268</v>
       </c>
       <c r="F10">
-        <v>1.013159097517093</v>
+        <v>1.046571217865052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04453040483748</v>
+        <v>1.036802784554936</v>
       </c>
       <c r="J10">
-        <v>1.01245488046684</v>
+        <v>1.034695216552273</v>
       </c>
       <c r="K10">
-        <v>1.025183848884272</v>
+        <v>1.041973615309905</v>
       </c>
       <c r="L10">
-        <v>1.007928061660623</v>
+        <v>1.031835430989561</v>
       </c>
       <c r="M10">
-        <v>1.027294756714151</v>
+        <v>1.049979467088316</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9800022928384524</v>
+        <v>1.027642983782997</v>
       </c>
       <c r="D11">
-        <v>1.008235785600062</v>
+        <v>1.03801012874233</v>
       </c>
       <c r="E11">
-        <v>0.9906144994206507</v>
+        <v>1.027797160882846</v>
       </c>
       <c r="F11">
-        <v>1.010007910899936</v>
+        <v>1.045957052438766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043342313242717</v>
+        <v>1.036645578124839</v>
       </c>
       <c r="J11">
-        <v>1.010231330762933</v>
+        <v>1.034264656989911</v>
       </c>
       <c r="K11">
-        <v>1.023004040598188</v>
+        <v>1.041569796377041</v>
       </c>
       <c r="L11">
-        <v>1.005715609906977</v>
+        <v>1.031394942503397</v>
       </c>
       <c r="M11">
-        <v>1.024743528788873</v>
+        <v>1.04948763182629</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9786589350393637</v>
+        <v>1.027395337433532</v>
       </c>
       <c r="D12">
-        <v>1.007192721887316</v>
+        <v>1.037814384860605</v>
       </c>
       <c r="E12">
-        <v>0.9895536412342713</v>
+        <v>1.027587351611615</v>
       </c>
       <c r="F12">
-        <v>1.008823672679936</v>
+        <v>1.045728962632531</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042893128646708</v>
+        <v>1.036586875492512</v>
       </c>
       <c r="J12">
-        <v>1.009394777214953</v>
+        <v>1.034104671444994</v>
       </c>
       <c r="K12">
-        <v>1.022183405996785</v>
+        <v>1.041419659201008</v>
       </c>
       <c r="L12">
-        <v>1.004883751395782</v>
+        <v>1.031231322611233</v>
       </c>
       <c r="M12">
-        <v>1.023783755240017</v>
+        <v>1.049304864843532</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9789478591319857</v>
+        <v>1.027448456203374</v>
       </c>
       <c r="D13">
-        <v>1.007417033255959</v>
+        <v>1.037856373444814</v>
       </c>
       <c r="E13">
-        <v>0.9897817338396352</v>
+        <v>1.027632351147447</v>
       </c>
       <c r="F13">
-        <v>1.009078329982837</v>
+        <v>1.045777886908879</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042989841838588</v>
+        <v>1.036599481389203</v>
       </c>
       <c r="J13">
-        <v>1.00957471081832</v>
+        <v>1.034138991436784</v>
       </c>
       <c r="K13">
-        <v>1.022359939532529</v>
+        <v>1.041451870496484</v>
       </c>
       <c r="L13">
-        <v>1.005062651602323</v>
+        <v>1.031266419751742</v>
       </c>
       <c r="M13">
-        <v>1.023990189110157</v>
+        <v>1.049344072473903</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9798915957854626</v>
+        <v>1.027622512261454</v>
       </c>
       <c r="D14">
-        <v>1.008149821910097</v>
+        <v>1.037993948879844</v>
       </c>
       <c r="E14">
-        <v>0.9905270487250595</v>
+        <v>1.027779815610894</v>
       </c>
       <c r="F14">
-        <v>1.009910306171121</v>
+        <v>1.045938197671618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04330534601602</v>
+        <v>1.036640732051077</v>
       </c>
       <c r="J14">
-        <v>1.01016240105016</v>
+        <v>1.034251433684985</v>
       </c>
       <c r="K14">
-        <v>1.022936433357255</v>
+        <v>1.041557388860114</v>
       </c>
       <c r="L14">
-        <v>1.005647056468328</v>
+        <v>1.031381417686358</v>
       </c>
       <c r="M14">
-        <v>1.024664444754639</v>
+        <v>1.049472525825961</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9804708276270562</v>
+        <v>1.027729760417333</v>
       </c>
       <c r="D15">
-        <v>1.008599657508989</v>
+        <v>1.038078711118992</v>
       </c>
       <c r="E15">
-        <v>0.9909847067764239</v>
+        <v>1.027870688735297</v>
       </c>
       <c r="F15">
-        <v>1.010421070181479</v>
+        <v>1.046036975564579</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043498685440629</v>
+        <v>1.036666106992093</v>
       </c>
       <c r="J15">
-        <v>1.010523071291763</v>
+        <v>1.034320705589655</v>
       </c>
       <c r="K15">
-        <v>1.023290162078683</v>
+        <v>1.041622383565506</v>
       </c>
       <c r="L15">
-        <v>1.006005779079248</v>
+        <v>1.031452271351395</v>
       </c>
       <c r="M15">
-        <v>1.025078249393659</v>
+        <v>1.049551659935468</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9838088131931804</v>
+        <v>1.028354089634921</v>
       </c>
       <c r="D16">
-        <v>1.011193042298313</v>
+        <v>1.038572024644755</v>
       </c>
       <c r="E16">
-        <v>0.9936252182064305</v>
+        <v>1.028399844056419</v>
       </c>
       <c r="F16">
-        <v>1.0133663440862</v>
+        <v>1.046611983358498</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044608167820721</v>
+        <v>1.036813174446118</v>
       </c>
       <c r="J16">
-        <v>1.012600990110441</v>
+        <v>1.034723783408127</v>
       </c>
       <c r="K16">
-        <v>1.025327008584658</v>
+        <v>1.042000395650257</v>
       </c>
       <c r="L16">
-        <v>1.008073513833695</v>
+        <v>1.031864664321566</v>
       </c>
       <c r="M16">
-        <v>1.027462405556633</v>
+        <v>1.050012097665222</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9858740100225343</v>
+        <v>1.028745801433266</v>
       </c>
       <c r="D17">
-        <v>1.012798430434033</v>
+        <v>1.038881431722435</v>
       </c>
       <c r="E17">
-        <v>0.9952615728130566</v>
+        <v>1.028731974955534</v>
       </c>
       <c r="F17">
-        <v>1.015190126742966</v>
+        <v>1.046972738258356</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04529042518849</v>
+        <v>1.036904874529285</v>
       </c>
       <c r="J17">
-        <v>1.013886065267258</v>
+        <v>1.034976522038083</v>
       </c>
       <c r="K17">
-        <v>1.026585717343561</v>
+        <v>1.042237260855183</v>
       </c>
       <c r="L17">
-        <v>1.009353197064116</v>
+        <v>1.032123341709372</v>
       </c>
       <c r="M17">
-        <v>1.028936958818913</v>
+        <v>1.050300779139543</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.987068584032684</v>
+        <v>1.028974311392333</v>
       </c>
       <c r="D18">
-        <v>1.013727321457496</v>
+        <v>1.039061890532466</v>
       </c>
       <c r="E18">
-        <v>0.9962090320695263</v>
+        <v>1.028925775137868</v>
       </c>
       <c r="F18">
-        <v>1.01624559143044</v>
+        <v>1.047183184573739</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045683538597906</v>
+        <v>1.036958162751221</v>
       </c>
       <c r="J18">
-        <v>1.014629186178991</v>
+        <v>1.035123903451707</v>
       </c>
       <c r="K18">
-        <v>1.027313236972264</v>
+        <v>1.042375329340589</v>
       </c>
       <c r="L18">
-        <v>1.010093524988554</v>
+        <v>1.032274221532272</v>
       </c>
       <c r="M18">
-        <v>1.029789675521608</v>
+        <v>1.050469111814577</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.987474230691513</v>
+        <v>1.02905223264727</v>
       </c>
       <c r="D19">
-        <v>1.014042794563555</v>
+        <v>1.039123420070001</v>
       </c>
       <c r="E19">
-        <v>0.9965309222569501</v>
+        <v>1.028991868489305</v>
       </c>
       <c r="F19">
-        <v>1.016604087864064</v>
+        <v>1.047254945384561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045816768928307</v>
+        <v>1.036976298909023</v>
       </c>
       <c r="J19">
-        <v>1.014881494276526</v>
+        <v>1.03517415045243</v>
       </c>
       <c r="K19">
-        <v>1.027560187291778</v>
+        <v>1.042422391671365</v>
       </c>
       <c r="L19">
-        <v>1.010344939819745</v>
+        <v>1.032325667238201</v>
       </c>
       <c r="M19">
-        <v>1.030079198080507</v>
+        <v>1.050526500341752</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9856534769735824</v>
+        <v>1.028703771245717</v>
       </c>
       <c r="D20">
-        <v>1.012626968090741</v>
+        <v>1.038848236619252</v>
       </c>
       <c r="E20">
-        <v>0.9950867357124957</v>
+        <v>1.028696332808068</v>
       </c>
       <c r="F20">
-        <v>1.014995317396268</v>
+        <v>1.046934030173341</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045217727785122</v>
+        <v>1.036895056546368</v>
       </c>
       <c r="J20">
-        <v>1.013748858920029</v>
+        <v>1.034949409372058</v>
       </c>
       <c r="K20">
-        <v>1.026451362736775</v>
+        <v>1.042211856865523</v>
       </c>
       <c r="L20">
-        <v>1.009216532653481</v>
+        <v>1.032095588308808</v>
       </c>
       <c r="M20">
-        <v>1.028779519222088</v>
+        <v>1.050269811550682</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9796141563642581</v>
+        <v>1.027571255741319</v>
       </c>
       <c r="D21">
-        <v>1.007934380856578</v>
+        <v>1.037953436867827</v>
       </c>
       <c r="E21">
-        <v>0.9903078972097707</v>
+        <v>1.027736387791688</v>
       </c>
       <c r="F21">
-        <v>1.009665695434649</v>
+        <v>1.045890989074871</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043212657880787</v>
+        <v>1.036628593289973</v>
       </c>
       <c r="J21">
-        <v>1.009989638836946</v>
+        <v>1.034218323801666</v>
       </c>
       <c r="K21">
-        <v>1.022766977143596</v>
+        <v>1.041526320214022</v>
       </c>
       <c r="L21">
-        <v>1.005475245714862</v>
+        <v>1.031347553734187</v>
       </c>
       <c r="M21">
-        <v>1.024466233259127</v>
+        <v>1.049434701647167</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9757201525383313</v>
+        <v>1.026859480693635</v>
       </c>
       <c r="D22">
-        <v>1.004912004674052</v>
+        <v>1.037390729603626</v>
       </c>
       <c r="E22">
-        <v>0.9872358587288952</v>
+        <v>1.027133503971444</v>
       </c>
       <c r="F22">
-        <v>1.006234819122989</v>
+        <v>1.045235411422279</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041906260730433</v>
+        <v>1.036459268766154</v>
       </c>
       <c r="J22">
-        <v>1.007564280191137</v>
+        <v>1.033758334391626</v>
       </c>
       <c r="K22">
-        <v>1.020386777813484</v>
+        <v>1.041094481597219</v>
       </c>
       <c r="L22">
-        <v>1.003064488603989</v>
+        <v>1.030877218524364</v>
       </c>
       <c r="M22">
-        <v>1.021683766679067</v>
+        <v>1.048909187114683</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9777939507271138</v>
+        <v>1.027236779235032</v>
       </c>
       <c r="D23">
-        <v>1.006521264817881</v>
+        <v>1.037689041572637</v>
       </c>
       <c r="E23">
-        <v>0.9888710124311201</v>
+        <v>1.027453040110325</v>
       </c>
       <c r="F23">
-        <v>1.008061421639056</v>
+        <v>1.045582924013207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042603250984502</v>
+        <v>1.036549200271796</v>
       </c>
       <c r="J23">
-        <v>1.008856055801471</v>
+        <v>1.034002214263132</v>
       </c>
       <c r="K23">
-        <v>1.021654787336904</v>
+        <v>1.04132348437715</v>
       </c>
       <c r="L23">
-        <v>1.004348200463614</v>
+        <v>1.031126553423345</v>
       </c>
       <c r="M23">
-        <v>1.023165702242975</v>
+        <v>1.049187814478004</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9857531572626171</v>
+        <v>1.028722762782149</v>
       </c>
       <c r="D24">
-        <v>1.012704467689577</v>
+        <v>1.03886323609805</v>
       </c>
       <c r="E24">
-        <v>0.9951657586552916</v>
+        <v>1.028712437732181</v>
       </c>
       <c r="F24">
-        <v>1.015083369003964</v>
+        <v>1.046951520616401</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045250591533684</v>
+        <v>1.036899493484767</v>
       </c>
       <c r="J24">
-        <v>1.013810876429792</v>
+        <v>1.034961660532346</v>
       </c>
       <c r="K24">
-        <v>1.026512092355624</v>
+        <v>1.042223336116081</v>
       </c>
       <c r="L24">
-        <v>1.009278304199223</v>
+        <v>1.032108128883081</v>
       </c>
       <c r="M24">
-        <v>1.028850682116162</v>
+        <v>1.050283804626682</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9945990601857867</v>
+        <v>1.030448382467065</v>
       </c>
       <c r="D25">
-        <v>1.019587184654279</v>
+        <v>1.040225305730964</v>
       </c>
       <c r="E25">
-        <v>1.002197762427035</v>
+        <v>1.030176792040691</v>
       </c>
       <c r="F25">
-        <v>1.022907820411606</v>
+        <v>1.048540642014827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048133901070518</v>
+        <v>1.03729818561901</v>
       </c>
       <c r="J25">
-        <v>1.019309564692036</v>
+        <v>1.036073600478375</v>
       </c>
       <c r="K25">
-        <v>1.031888857977675</v>
+        <v>1.043263992174561</v>
       </c>
       <c r="L25">
-        <v>1.014762056500391</v>
+        <v>1.033247098970678</v>
       </c>
       <c r="M25">
-        <v>1.035160633355712</v>
+        <v>1.051553662137748</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_88/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031825702612842</v>
+        <v>1.001370799019362</v>
       </c>
       <c r="D2">
-        <v>1.041311234128588</v>
+        <v>1.024861552578999</v>
       </c>
       <c r="E2">
-        <v>1.031347056317505</v>
+        <v>1.007607171588623</v>
       </c>
       <c r="F2">
-        <v>1.0498088441016</v>
+        <v>1.02891094931632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037609870213082</v>
+        <v>1.05029162698662</v>
       </c>
       <c r="J2">
-        <v>1.03695929352739</v>
+        <v>1.023510586885515</v>
       </c>
       <c r="K2">
-        <v>1.044091108366749</v>
+        <v>1.035985060282104</v>
       </c>
       <c r="L2">
-        <v>1.034155437614137</v>
+        <v>1.018961534079138</v>
       </c>
       <c r="M2">
-        <v>1.05256487077546</v>
+        <v>1.039981682636849</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032826317500215</v>
+        <v>1.006136971301497</v>
       </c>
       <c r="D3">
-        <v>1.042099433132061</v>
+        <v>1.028575615916493</v>
       </c>
       <c r="E3">
-        <v>1.032198089628791</v>
+        <v>1.011428539343998</v>
       </c>
       <c r="F3">
-        <v>1.050730073968098</v>
+        <v>1.033142579436447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037832511416765</v>
+        <v>1.051780548570648</v>
       </c>
       <c r="J3">
-        <v>1.037601686063421</v>
+        <v>1.026461722993792</v>
       </c>
       <c r="K3">
-        <v>1.044689967995596</v>
+        <v>1.0388554696319</v>
       </c>
       <c r="L3">
-        <v>1.03481490173521</v>
+        <v>1.021917248782862</v>
       </c>
       <c r="M3">
-        <v>1.053298139988801</v>
+        <v>1.043368254642241</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033474039065305</v>
+        <v>1.009155442582546</v>
       </c>
       <c r="D4">
-        <v>1.042609314512821</v>
+        <v>1.030928175312561</v>
       </c>
       <c r="E4">
-        <v>1.032749369543917</v>
+        <v>1.013854812381773</v>
       </c>
       <c r="F4">
-        <v>1.051326352033497</v>
+        <v>1.035825103459466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037974874079927</v>
+        <v>1.052709368999364</v>
       </c>
       <c r="J4">
-        <v>1.03801702990991</v>
+        <v>1.028327815679043</v>
       </c>
       <c r="K4">
-        <v>1.045076679039764</v>
+        <v>1.040667121864976</v>
       </c>
       <c r="L4">
-        <v>1.035241582643736</v>
+        <v>1.023788849116906</v>
       </c>
       <c r="M4">
-        <v>1.053772165986827</v>
+        <v>1.045509554541659</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033746402167627</v>
+        <v>1.010409293758991</v>
       </c>
       <c r="D5">
-        <v>1.042823634939291</v>
+        <v>1.031905446803344</v>
       </c>
       <c r="E5">
-        <v>1.032981271293592</v>
+        <v>1.014864098037486</v>
       </c>
       <c r="F5">
-        <v>1.051577069487031</v>
+        <v>1.036939969392352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038034315530487</v>
+        <v>1.053091750516983</v>
       </c>
       <c r="J5">
-        <v>1.03819156142429</v>
+        <v>1.029102244013741</v>
       </c>
       <c r="K5">
-        <v>1.045239062078492</v>
+        <v>1.041418126051483</v>
       </c>
       <c r="L5">
-        <v>1.035420949772614</v>
+        <v>1.024566189436475</v>
       </c>
       <c r="M5">
-        <v>1.053971338238057</v>
+        <v>1.046398151324735</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033792136690165</v>
+        <v>1.010618950917695</v>
       </c>
       <c r="D6">
-        <v>1.042859618272524</v>
+        <v>1.032068857262479</v>
       </c>
       <c r="E6">
-        <v>1.033020217012735</v>
+        <v>1.015032943929696</v>
       </c>
       <c r="F6">
-        <v>1.051619168490188</v>
+        <v>1.037126418387753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038044272080601</v>
+        <v>1.053155484758916</v>
       </c>
       <c r="J6">
-        <v>1.038220861377255</v>
+        <v>1.029231692418225</v>
       </c>
       <c r="K6">
-        <v>1.045266315721369</v>
+        <v>1.041543609657046</v>
       </c>
       <c r="L6">
-        <v>1.035451065721164</v>
+        <v>1.024696161405542</v>
       </c>
       <c r="M6">
-        <v>1.054004773757535</v>
+        <v>1.046546680576028</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033477678155551</v>
+        <v>1.009172255244222</v>
       </c>
       <c r="D7">
-        <v>1.042612178406719</v>
+        <v>1.030941279306965</v>
       </c>
       <c r="E7">
-        <v>1.032752467663212</v>
+        <v>1.013868340123391</v>
       </c>
       <c r="F7">
-        <v>1.051329701968152</v>
+        <v>1.0358400503331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037975669942647</v>
+        <v>1.052714509959573</v>
       </c>
       <c r="J7">
-        <v>1.038019362320044</v>
+        <v>1.028338202793583</v>
       </c>
       <c r="K7">
-        <v>1.04507884955867</v>
+        <v>1.040677198108594</v>
       </c>
       <c r="L7">
-        <v>1.035243979394519</v>
+        <v>1.023799272813638</v>
       </c>
       <c r="M7">
-        <v>1.05377482776289</v>
+        <v>1.045521473136566</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032163811604543</v>
+        <v>1.002995483996543</v>
       </c>
       <c r="D8">
-        <v>1.041577637171714</v>
+        <v>1.026127474420705</v>
       </c>
       <c r="E8">
-        <v>1.0316345412319</v>
+        <v>1.008908471185745</v>
       </c>
       <c r="F8">
-        <v>1.050120139955654</v>
+        <v>1.03035284367281</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037685464728976</v>
+        <v>1.050802100157044</v>
       </c>
       <c r="J8">
-        <v>1.037176460375553</v>
+        <v>1.024517149034246</v>
       </c>
       <c r="K8">
-        <v>1.044293659077148</v>
+        <v>1.036964791080946</v>
       </c>
       <c r="L8">
-        <v>1.034378313677912</v>
+        <v>1.019969108702685</v>
       </c>
       <c r="M8">
-        <v>1.052812774760596</v>
+        <v>1.041136782573964</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029850600772033</v>
+        <v>0.9915813305014396</v>
       </c>
       <c r="D9">
-        <v>1.03975365052736</v>
+        <v>1.017238118181321</v>
       </c>
       <c r="E9">
-        <v>1.029669286830514</v>
+        <v>0.9997945204649941</v>
       </c>
       <c r="F9">
-        <v>1.047990170215742</v>
+        <v>1.020236261019199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037161082700744</v>
+        <v>1.047157946875915</v>
       </c>
       <c r="J9">
-        <v>1.035688686554783</v>
+        <v>1.017434916837167</v>
       </c>
       <c r="K9">
-        <v>1.042904031839743</v>
+        <v>1.030057575727124</v>
       </c>
       <c r="L9">
-        <v>1.032852655458056</v>
+        <v>1.012890932311166</v>
       </c>
       <c r="M9">
-        <v>1.051114124289293</v>
+        <v>1.033009334431251</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028309826647405</v>
+        <v>0.983574048963583</v>
       </c>
       <c r="D10">
-        <v>1.038537056918057</v>
+        <v>1.011010588426863</v>
       </c>
       <c r="E10">
-        <v>1.02836232008268</v>
+        <v>0.9934393333204221</v>
       </c>
       <c r="F10">
-        <v>1.046571217865052</v>
+        <v>1.013159097517094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036802784554936</v>
+        <v>1.04453040483748</v>
       </c>
       <c r="J10">
-        <v>1.034695216552273</v>
+        <v>1.012454880466841</v>
       </c>
       <c r="K10">
-        <v>1.041973615309905</v>
+        <v>1.025183848884273</v>
       </c>
       <c r="L10">
-        <v>1.031835430989561</v>
+        <v>1.007928061660624</v>
       </c>
       <c r="M10">
-        <v>1.049979467088316</v>
+        <v>1.027294756714152</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027642983782997</v>
+        <v>0.9800022928384532</v>
       </c>
       <c r="D11">
-        <v>1.03801012874233</v>
+        <v>1.008235785600063</v>
       </c>
       <c r="E11">
-        <v>1.027797160882846</v>
+        <v>0.9906144994206512</v>
       </c>
       <c r="F11">
-        <v>1.045957052438766</v>
+        <v>1.010007910899936</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036645578124839</v>
+        <v>1.043342313242717</v>
       </c>
       <c r="J11">
-        <v>1.034264656989911</v>
+        <v>1.010231330762934</v>
       </c>
       <c r="K11">
-        <v>1.041569796377041</v>
+        <v>1.023004040598188</v>
       </c>
       <c r="L11">
-        <v>1.031394942503397</v>
+        <v>1.005715609906978</v>
       </c>
       <c r="M11">
-        <v>1.04948763182629</v>
+        <v>1.024743528788873</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027395337433532</v>
+        <v>0.978658935039363</v>
       </c>
       <c r="D12">
-        <v>1.037814384860605</v>
+        <v>1.007192721887315</v>
       </c>
       <c r="E12">
-        <v>1.027587351611615</v>
+        <v>0.9895536412342701</v>
       </c>
       <c r="F12">
-        <v>1.045728962632531</v>
+        <v>1.008823672679935</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036586875492512</v>
+        <v>1.042893128646708</v>
       </c>
       <c r="J12">
-        <v>1.034104671444994</v>
+        <v>1.009394777214952</v>
       </c>
       <c r="K12">
-        <v>1.041419659201008</v>
+        <v>1.022183405996784</v>
       </c>
       <c r="L12">
-        <v>1.031231322611233</v>
+        <v>1.004883751395781</v>
       </c>
       <c r="M12">
-        <v>1.049304864843532</v>
+        <v>1.023783755240016</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027448456203374</v>
+        <v>0.9789478591319853</v>
       </c>
       <c r="D13">
-        <v>1.037856373444814</v>
+        <v>1.007417033255959</v>
       </c>
       <c r="E13">
-        <v>1.027632351147447</v>
+        <v>0.989781733839635</v>
       </c>
       <c r="F13">
-        <v>1.045777886908879</v>
+        <v>1.009078329982837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036599481389203</v>
+        <v>1.042989841838588</v>
       </c>
       <c r="J13">
-        <v>1.034138991436784</v>
+        <v>1.009574710818319</v>
       </c>
       <c r="K13">
-        <v>1.041451870496484</v>
+        <v>1.022359939532528</v>
       </c>
       <c r="L13">
-        <v>1.031266419751742</v>
+        <v>1.005062651602322</v>
       </c>
       <c r="M13">
-        <v>1.049344072473903</v>
+        <v>1.023990189110157</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027622512261454</v>
+        <v>0.9798915957854626</v>
       </c>
       <c r="D14">
-        <v>1.037993948879844</v>
+        <v>1.008149821910098</v>
       </c>
       <c r="E14">
-        <v>1.027779815610894</v>
+        <v>0.9905270487250594</v>
       </c>
       <c r="F14">
-        <v>1.045938197671618</v>
+        <v>1.009910306171122</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036640732051077</v>
+        <v>1.04330534601602</v>
       </c>
       <c r="J14">
-        <v>1.034251433684985</v>
+        <v>1.010162401050161</v>
       </c>
       <c r="K14">
-        <v>1.041557388860114</v>
+        <v>1.022936433357255</v>
       </c>
       <c r="L14">
-        <v>1.031381417686358</v>
+        <v>1.005647056468328</v>
       </c>
       <c r="M14">
-        <v>1.049472525825961</v>
+        <v>1.024664444754639</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027729760417333</v>
+        <v>0.9804708276270565</v>
       </c>
       <c r="D15">
-        <v>1.038078711118992</v>
+        <v>1.008599657508989</v>
       </c>
       <c r="E15">
-        <v>1.027870688735297</v>
+        <v>0.9909847067764241</v>
       </c>
       <c r="F15">
-        <v>1.046036975564579</v>
+        <v>1.010421070181479</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036666106992093</v>
+        <v>1.043498685440629</v>
       </c>
       <c r="J15">
-        <v>1.034320705589655</v>
+        <v>1.010523071291764</v>
       </c>
       <c r="K15">
-        <v>1.041622383565506</v>
+        <v>1.023290162078684</v>
       </c>
       <c r="L15">
-        <v>1.031452271351395</v>
+        <v>1.006005779079248</v>
       </c>
       <c r="M15">
-        <v>1.049551659935468</v>
+        <v>1.025078249393659</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028354089634921</v>
+        <v>0.9838088131931804</v>
       </c>
       <c r="D16">
-        <v>1.038572024644755</v>
+        <v>1.011193042298313</v>
       </c>
       <c r="E16">
-        <v>1.028399844056419</v>
+        <v>0.9936252182064303</v>
       </c>
       <c r="F16">
-        <v>1.046611983358498</v>
+        <v>1.0133663440862</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036813174446118</v>
+        <v>1.044608167820721</v>
       </c>
       <c r="J16">
-        <v>1.034723783408127</v>
+        <v>1.012600990110441</v>
       </c>
       <c r="K16">
-        <v>1.042000395650257</v>
+        <v>1.025327008584657</v>
       </c>
       <c r="L16">
-        <v>1.031864664321566</v>
+        <v>1.008073513833695</v>
       </c>
       <c r="M16">
-        <v>1.050012097665222</v>
+        <v>1.027462405556633</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028745801433266</v>
+        <v>0.9858740100225348</v>
       </c>
       <c r="D17">
-        <v>1.038881431722435</v>
+        <v>1.012798430434033</v>
       </c>
       <c r="E17">
-        <v>1.028731974955534</v>
+        <v>0.9952615728130574</v>
       </c>
       <c r="F17">
-        <v>1.046972738258356</v>
+        <v>1.015190126742967</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036904874529285</v>
+        <v>1.045290425188491</v>
       </c>
       <c r="J17">
-        <v>1.034976522038083</v>
+        <v>1.013886065267259</v>
       </c>
       <c r="K17">
-        <v>1.042237260855183</v>
+        <v>1.026585717343562</v>
       </c>
       <c r="L17">
-        <v>1.032123341709372</v>
+        <v>1.009353197064117</v>
       </c>
       <c r="M17">
-        <v>1.050300779139543</v>
+        <v>1.028936958818913</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028974311392333</v>
+        <v>0.9870685840326833</v>
       </c>
       <c r="D18">
-        <v>1.039061890532466</v>
+        <v>1.013727321457495</v>
       </c>
       <c r="E18">
-        <v>1.028925775137868</v>
+        <v>0.9962090320695256</v>
       </c>
       <c r="F18">
-        <v>1.047183184573739</v>
+        <v>1.016245591430439</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036958162751221</v>
+        <v>1.045683538597906</v>
       </c>
       <c r="J18">
-        <v>1.035123903451707</v>
+        <v>1.01462918617899</v>
       </c>
       <c r="K18">
-        <v>1.042375329340589</v>
+        <v>1.027313236972263</v>
       </c>
       <c r="L18">
-        <v>1.032274221532272</v>
+        <v>1.010093524988553</v>
       </c>
       <c r="M18">
-        <v>1.050469111814577</v>
+        <v>1.029789675521607</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02905223264727</v>
+        <v>0.9874742306915132</v>
       </c>
       <c r="D19">
-        <v>1.039123420070001</v>
+        <v>1.014042794563555</v>
       </c>
       <c r="E19">
-        <v>1.028991868489305</v>
+        <v>0.9965309222569502</v>
       </c>
       <c r="F19">
-        <v>1.047254945384561</v>
+        <v>1.016604087864063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036976298909023</v>
+        <v>1.045816768928308</v>
       </c>
       <c r="J19">
-        <v>1.03517415045243</v>
+        <v>1.014881494276526</v>
       </c>
       <c r="K19">
-        <v>1.042422391671365</v>
+        <v>1.027560187291778</v>
       </c>
       <c r="L19">
-        <v>1.032325667238201</v>
+        <v>1.010344939819745</v>
       </c>
       <c r="M19">
-        <v>1.050526500341752</v>
+        <v>1.030079198080507</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028703771245717</v>
+        <v>0.9856534769735824</v>
       </c>
       <c r="D20">
-        <v>1.038848236619252</v>
+        <v>1.012626968090741</v>
       </c>
       <c r="E20">
-        <v>1.028696332808068</v>
+        <v>0.9950867357124957</v>
       </c>
       <c r="F20">
-        <v>1.046934030173341</v>
+        <v>1.014995317396268</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036895056546368</v>
+        <v>1.045217727785122</v>
       </c>
       <c r="J20">
-        <v>1.034949409372058</v>
+        <v>1.013748858920029</v>
       </c>
       <c r="K20">
-        <v>1.042211856865523</v>
+        <v>1.026451362736775</v>
       </c>
       <c r="L20">
-        <v>1.032095588308808</v>
+        <v>1.009216532653481</v>
       </c>
       <c r="M20">
-        <v>1.050269811550682</v>
+        <v>1.028779519222087</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027571255741319</v>
+        <v>0.9796141563642574</v>
       </c>
       <c r="D21">
-        <v>1.037953436867827</v>
+        <v>1.007934380856577</v>
       </c>
       <c r="E21">
-        <v>1.027736387791688</v>
+        <v>0.9903078972097702</v>
       </c>
       <c r="F21">
-        <v>1.045890989074871</v>
+        <v>1.009665695434648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036628593289973</v>
+        <v>1.043212657880786</v>
       </c>
       <c r="J21">
-        <v>1.034218323801666</v>
+        <v>1.009989638836945</v>
       </c>
       <c r="K21">
-        <v>1.041526320214022</v>
+        <v>1.022766977143596</v>
       </c>
       <c r="L21">
-        <v>1.031347553734187</v>
+        <v>1.005475245714861</v>
       </c>
       <c r="M21">
-        <v>1.049434701647167</v>
+        <v>1.024466233259127</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026859480693635</v>
+        <v>0.9757201525383306</v>
       </c>
       <c r="D22">
-        <v>1.037390729603626</v>
+        <v>1.004912004674052</v>
       </c>
       <c r="E22">
-        <v>1.027133503971444</v>
+        <v>0.9872358587288944</v>
       </c>
       <c r="F22">
-        <v>1.045235411422279</v>
+        <v>1.006234819122989</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036459268766154</v>
+        <v>1.041906260730433</v>
       </c>
       <c r="J22">
-        <v>1.033758334391626</v>
+        <v>1.007564280191136</v>
       </c>
       <c r="K22">
-        <v>1.041094481597219</v>
+        <v>1.020386777813484</v>
       </c>
       <c r="L22">
-        <v>1.030877218524364</v>
+        <v>1.003064488603988</v>
       </c>
       <c r="M22">
-        <v>1.048909187114683</v>
+        <v>1.021683766679066</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027236779235032</v>
+        <v>0.9777939507271135</v>
       </c>
       <c r="D23">
-        <v>1.037689041572637</v>
+        <v>1.006521264817881</v>
       </c>
       <c r="E23">
-        <v>1.027453040110325</v>
+        <v>0.9888710124311196</v>
       </c>
       <c r="F23">
-        <v>1.045582924013207</v>
+        <v>1.008061421639056</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036549200271796</v>
+        <v>1.042603250984502</v>
       </c>
       <c r="J23">
-        <v>1.034002214263132</v>
+        <v>1.008856055801471</v>
       </c>
       <c r="K23">
-        <v>1.04132348437715</v>
+        <v>1.021654787336904</v>
       </c>
       <c r="L23">
-        <v>1.031126553423345</v>
+        <v>1.004348200463613</v>
       </c>
       <c r="M23">
-        <v>1.049187814478004</v>
+        <v>1.023165702242975</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028722762782149</v>
+        <v>0.9857531572626171</v>
       </c>
       <c r="D24">
-        <v>1.03886323609805</v>
+        <v>1.012704467689578</v>
       </c>
       <c r="E24">
-        <v>1.028712437732181</v>
+        <v>0.9951657586552918</v>
       </c>
       <c r="F24">
-        <v>1.046951520616401</v>
+        <v>1.015083369003964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036899493484767</v>
+        <v>1.045250591533683</v>
       </c>
       <c r="J24">
-        <v>1.034961660532346</v>
+        <v>1.013810876429792</v>
       </c>
       <c r="K24">
-        <v>1.042223336116081</v>
+        <v>1.026512092355624</v>
       </c>
       <c r="L24">
-        <v>1.032108128883081</v>
+        <v>1.009278304199223</v>
       </c>
       <c r="M24">
-        <v>1.050283804626682</v>
+        <v>1.028850682116162</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030448382467065</v>
+        <v>0.994599060185787</v>
       </c>
       <c r="D25">
-        <v>1.040225305730964</v>
+        <v>1.019587184654279</v>
       </c>
       <c r="E25">
-        <v>1.030176792040691</v>
+        <v>1.002197762427035</v>
       </c>
       <c r="F25">
-        <v>1.048540642014827</v>
+        <v>1.022907820411606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03729818561901</v>
+        <v>1.048133901070518</v>
       </c>
       <c r="J25">
-        <v>1.036073600478375</v>
+        <v>1.019309564692036</v>
       </c>
       <c r="K25">
-        <v>1.043263992174561</v>
+        <v>1.031888857977675</v>
       </c>
       <c r="L25">
-        <v>1.033247098970678</v>
+        <v>1.014762056500391</v>
       </c>
       <c r="M25">
-        <v>1.051553662137748</v>
+        <v>1.035160633355712</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
